--- a/Miza-Monthly/Co_py/Client_Location.xlsx
+++ b/Miza-Monthly/Co_py/Client_Location.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="الكود"/>
     <tableColumn id="2" name="اسم العميل"/>
@@ -160,7 +160,7 @@
     <tableColumn id="4" name="العرض"/>
     <tableColumn id="5" name="الاخصائي"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -429,20 +429,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
